--- a/StructureDefinition-ObservationInicioDiscapacidadLE.xlsx
+++ b/StructureDefinition-ObservationInicioDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationInicioDiscapacidadLE.xlsx
+++ b/StructureDefinition-ObservationInicioDiscapacidadLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
